--- a/labs/lab2/results.xlsx
+++ b/labs/lab2/results.xlsx
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>One epoch time</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>OOM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +351,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1777.87973880767</v>
+      </c>
+      <c r="C2">
+        <v>7520</v>
+      </c>
+      <c r="D2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1392.61272764205</v>
+      </c>
+      <c r="C3">
+        <v>3809</v>
+      </c>
+      <c r="D3">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1209</v>
+      </c>
+      <c r="C4">
+        <v>1905</v>
+      </c>
+      <c r="D4">
+        <v>3.0880000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/labs/lab2/results.xlsx
+++ b/labs/lab2/results.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Batch size</t>
   </si>
@@ -35,18 +36,33 @@
   <si>
     <t>OOM</t>
   </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>training time (s)</t>
+  </si>
+  <si>
+    <t>Expected training time (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -65,12 +81,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +169,1625 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DBF2-4ECA-A32C-C21841FDF8EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DBF2-4ECA-A32C-C21841FDF8EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1971614416"/>
+        <c:axId val="1971609120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1971614416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1971609120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1971609120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1971614416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8921-4F1B-A1EA-C60BBA4180DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8921-4F1B-A1EA-C60BBA4180DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1913926640"/>
+        <c:axId val="1913924144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1913926640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1913924144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1913924144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1913926640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +2129,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>278</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="C3" s="4">
+        <v>328</v>
+      </c>
+      <c r="D3" s="5">
+        <v>328</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4043</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4043</v>
+      </c>
+      <c r="L3">
+        <f>J3-K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.4042</v>
+      </c>
+      <c r="C4" s="4">
+        <v>197</v>
+      </c>
+      <c r="D4" s="5">
+        <f>D3/2</f>
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">C4-D4</f>
+        <v>33</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.4002</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2105</v>
+      </c>
+      <c r="K4" s="5">
+        <f>K3/2</f>
+        <v>2021.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="1">J4-K4</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5">
+        <f>D4/2</f>
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H5" s="3">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.4012</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1132</v>
+      </c>
+      <c r="K5" s="5">
+        <f>K4/2</f>
+        <v>1010.75</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>121.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/labs/lab2/results.xlsx
+++ b/labs/lab2/results.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Batch size</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t>Expected training time (s)</t>
+  </si>
+  <si>
+    <t># Node</t>
   </si>
 </sst>
 </file>
@@ -624,6 +628,232 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D959-4913-B5E6-54A0D778AA42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D959-4913-B5E6-54A0D778AA42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="480343039"/>
+        <c:axId val="480342207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="480343039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="480342207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="480342207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480343039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -704,6 +934,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1221,6 +1491,511 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1782,6 +2557,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2135,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2292,4 +3102,108 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="C3:C5 E3:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.1951</v>
+      </c>
+      <c r="C2" s="4">
+        <v>464</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>464</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1951</v>
+      </c>
+      <c r="C3" s="4">
+        <v>459</v>
+      </c>
+      <c r="D3">
+        <f>C3</f>
+        <v>459</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>256</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="1">D3/2</f>
+        <v>229.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1951</v>
+      </c>
+      <c r="C5" s="4">
+        <v>139</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>114.75</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>